--- a/medicine/Mort/Cimetière_Al-Oud/Cimetière_Al-Oud.xlsx
+++ b/medicine/Mort/Cimetière_Al-Oud/Cimetière_Al-Oud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Al-Oud</t>
+          <t>Cimetière_Al-Oud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Al-Oud (en arabe : مقبرة العود) est un cimetière public de Riyad, en Arabie saoudite. Le mot Oud, en arabe, signifie « aîné », et fait ici référence au roi Abdelaziz, qui est enterré dans le cimetière. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Al-Oud</t>
+          <t>Cimetière_Al-Oud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Emplacement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Al Oud est situé dans le district d'Al Gubeirah, à environ un kilomètre de la rue Batha'a, le centre de Riyad. Plus précisément, le cimetière se trouve du côté gauche de la rue Batha'a, au sud, entre Al Dirrah et Manfuha[1]. Il se trouve à 5 kilomètres de la mosquée Imam Turki bin Abdullah. En mars 2012, la direction de la santé environnementale de la municipalité de Riyadh lance un projet visant à marquer chaque tombe électroniquement.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Al Oud est situé dans le district d'Al Gubeirah, à environ un kilomètre de la rue Batha'a, le centre de Riyad. Plus précisément, le cimetière se trouve du côté gauche de la rue Batha'a, au sud, entre Al Dirrah et Manfuha. Il se trouve à 5 kilomètres de la mosquée Imam Turki bin Abdullah. En mars 2012, la direction de la santé environnementale de la municipalité de Riyadh lance un projet visant à marquer chaque tombe électroniquement.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Al-Oud</t>
+          <t>Cimetière_Al-Oud</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Inhumations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière est la dernière demeure de la majorité des membres de la famille royale saoudienne, notamment Ibn Saoud, le roi Fahd, le roi Khaled, le roi Fayçal, le roi Saoud et le roi Abdallah[2],[3]. 
-D'autres personnalités royales, telles que le prince Sultan, le prince Fahd, le prince Ahmed, Sultana Bint Turki bin Ahmad Al Sudairi, l'épouse du roi Salmane, Hussa bint Turki Al Aalal et Sultan ben Fayçal ben Turki ben Abdallah, y sont également enterrées[2],[4],[5],[6]. Les autres comprennent le prince Nasser, le prince Fayçal, le prince Abdul Majeed, le prince Badr, le prince Muhammed, le prince Turki et la princesse Sultana. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière est la dernière demeure de la majorité des membres de la famille royale saoudienne, notamment Ibn Saoud, le roi Fahd, le roi Khaled, le roi Fayçal, le roi Saoud et le roi Abdallah,. 
+D'autres personnalités royales, telles que le prince Sultan, le prince Fahd, le prince Ahmed, Sultana Bint Turki bin Ahmad Al Sudairi, l'épouse du roi Salmane, Hussa bint Turki Al Aalal et Sultan ben Fayçal ben Turki ben Abdallah, y sont également enterrées. Les autres comprennent le prince Nasser, le prince Fayçal, le prince Abdul Majeed, le prince Badr, le prince Muhammed, le prince Turki et la princesse Sultana. 
 Ghazi Al-Gosaibi, écrivain et personnalité publique, y repose également. Le cimetière est utilisé à la fois pour les roturiers et les membres de la royauté. 
 </t>
         </is>
